--- a/Burndown3.xlsx
+++ b/Burndown3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Desktop\comp255Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE316C4-A104-4970-B766-529EFCFFF6A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D76F4C-2910-4C83-A3C2-C6BA7C1AE472}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A312CE9-1D41-4F0B-BD3B-06419D78015C}"/>
+    <workbookView xWindow="-10440" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6A312CE9-1D41-4F0B-BD3B-06419D78015C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Day of the Sprint</t>
   </si>
   <si>
-    <t>Forecast</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Average Productivity%</t>
+  </si>
+  <si>
+    <t>Estimated</t>
   </si>
 </sst>
 </file>
@@ -172,8 +172,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Sprint 3 Burndown Chart</a:t>
+              <a:t>Sprint 3</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -221,7 +226,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Forecast</c:v>
+                  <c:v>Estimated</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -250,67 +255,31 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6.3999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$3:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>11.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -319,7 +288,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5659-48E3-BBFD-868D8CC8C8D1}"/>
+              <c16:uniqueId val="{00000001-1694-4A60-98C1-46AC32F1AFBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -361,67 +330,31 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:f>Sheet1!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -430,7 +363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5659-48E3-BBFD-868D8CC8C8D1}"/>
+              <c16:uniqueId val="{00000002-1694-4A60-98C1-46AC32F1AFBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -472,67 +405,31 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:f>Sheet1!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -541,7 +438,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5659-48E3-BBFD-868D8CC8C8D1}"/>
+              <c16:uniqueId val="{00000003-1694-4A60-98C1-46AC32F1AFBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -555,8 +452,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474936032"/>
-        <c:axId val="474933080"/>
+        <c:axId val="1367267776"/>
+        <c:axId val="1455793392"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -590,81 +487,51 @@
                   <a:effectLst/>
                 </c:spPr>
                 <c:marker>
-                  <c:symbol val="none"/>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
                 </c:marker>
-                <c:cat>
+                <c:val>
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$3:$D$10</c15:sqref>
+                          <c15:sqref>Sheet1!$D$3:$D$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>4</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5</c:v>
+                        <c:v>6</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$3:$D$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="8"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
                         <c:v>7</c:v>
                       </c:pt>
                     </c:numCache>
@@ -673,7 +540,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5659-48E3-BBFD-868D8CC8C8D1}"/>
+                    <c16:uniqueId val="{00000000-1694-4A60-98C1-46AC32F1AFBC}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -682,13 +549,67 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="474936032"/>
+        <c:axId val="1367267776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -725,7 +646,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474933080"/>
+        <c:crossAx val="1455793392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="474933080"/>
+        <c:axId val="1455793392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,6 +674,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Hours Remaining</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -784,7 +760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474936032"/>
+        <c:crossAx val="1367267776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1419,22 +1395,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>196215</xdr:colOff>
+      <xdr:colOff>1543050</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>89535</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>379095</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E10E08B-158F-4FA8-92CA-1C54CA1B85D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0C4D576-900A-4CEE-AD61-D602F8DA1F35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +1731,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,18 +1772,18 @@
         <v>43716</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E16" si="0">Productive_Hours-(Day_of_the_Sprint*Average_Daily_Productive_Hours)</f>
-        <v>11.2</v>
+        <f t="shared" ref="E3:E9" si="0">Productive_Hours-(Day_of_the_Sprint*Average_Daily_Productive_Hours)</f>
+        <v>9.6</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F16" si="1">Total_Available_Hours-(Day_of_the_Sprint*Average_Daily_Available_Hours)</f>
-        <v>14</v>
+        <f t="shared" ref="F3:F9" si="1">Total_Available_Hours-(Day_of_the_Sprint*Average_Daily_Available_Hours)</f>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1818,18 +1794,18 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,18 +1816,18 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1863,18 +1839,18 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>6.3999999999999995</v>
+        <v>4.8</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1886,40 +1862,40 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>80</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.2</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,18 +1907,18 @@
         <v>11.2</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,20 +1928,6 @@
       <c r="B10">
         <f>Productive_Hours/Working_Days</f>
         <v>1.5999999999999999</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
